--- a/ANN_GA/GA_output.xlsx
+++ b/ANN_GA/GA_output.xlsx
@@ -1532,7 +1532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1261"/>
+  <dimension ref="A1:B2017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1048576"/>
@@ -11626,6 +11626,6054 @@
       </c>
       <c r="B1261" t="n">
         <v>11.61275482177734</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2">
+      <c r="A1262" t="n">
+        <v>2.220316410064697</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>11.05782699584961</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2">
+      <c r="A1263" t="n">
+        <v>2.138322591781616</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>13.51292991638184</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2">
+      <c r="A1264" t="n">
+        <v>2.726600646972656</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>13.29261779785156</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2">
+      <c r="A1265" t="n">
+        <v>2.002518892288208</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>11.07361221313477</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2">
+      <c r="A1266" t="n">
+        <v>2.2369384765625</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>20.20777320861816</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2">
+      <c r="A1267" t="n">
+        <v>2.709869384765625</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>13.14562797546387</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2">
+      <c r="A1268" t="n">
+        <v>2.272591590881348</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>15.34255409240723</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2">
+      <c r="A1269" t="n">
+        <v>2.838226318359375</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>18.53678131103516</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2">
+      <c r="A1270" t="n">
+        <v>2.294498443603516</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>14.22583293914795</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2">
+      <c r="A1271" t="n">
+        <v>2.780416488647461</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>17.26104354858398</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2">
+      <c r="A1272" t="n">
+        <v>2.08024525642395</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>12.4086742401123</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2">
+      <c r="A1273" t="n">
+        <v>2.080689430236816</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>12.76849174499512</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2">
+      <c r="A1274" t="n">
+        <v>2.058865785598755</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>10.37038993835449</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2">
+      <c r="A1275" t="n">
+        <v>2.146633625030518</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>15.07996082305908</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2">
+      <c r="A1276" t="n">
+        <v>2.135541200637817</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>16.06986045837402</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2">
+      <c r="A1277" t="n">
+        <v>2.145523071289062</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>15.3034496307373</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2">
+      <c r="A1278" t="n">
+        <v>2.122588634490967</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>16.7181396484375</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2">
+      <c r="A1279" t="n">
+        <v>2.073503971099854</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>11.66098594665527</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2">
+      <c r="A1280" t="n">
+        <v>2.066450595855713</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>12.5168285369873</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2">
+      <c r="A1281" t="n">
+        <v>2.160216331481934</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>14.44387626647949</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2">
+      <c r="A1282" t="n">
+        <v>2.053627490997314</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>13.22229671478271</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2">
+      <c r="A1283" t="n">
+        <v>2.75824499130249</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>16.19085502624512</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2">
+      <c r="A1284" t="n">
+        <v>2.082117080688477</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>11.39667320251465</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2">
+      <c r="A1285" t="n">
+        <v>2.739853858947754</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>15.2023754119873</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2">
+      <c r="A1286" t="n">
+        <v>2.085019826889038</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>12.36499214172363</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2">
+      <c r="A1287" t="n">
+        <v>2.800333976745605</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>19.01920318603516</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2">
+      <c r="A1288" t="n">
+        <v>2.104862928390503</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>12.93184471130371</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2">
+      <c r="A1289" t="n">
+        <v>2.671714305877686</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>5.517572402954102</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2">
+      <c r="A1290" t="n">
+        <v>2.009924411773682</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>6.951523780822754</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2">
+      <c r="A1291" t="n">
+        <v>2.22165584564209</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>17.08111000061035</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2">
+      <c r="A1292" t="n">
+        <v>2.174935340881348</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>9.768974304199219</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2">
+      <c r="A1293" t="n">
+        <v>2.644641876220703</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>3.912536859512329</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2">
+      <c r="A1294" t="n">
+        <v>1.829962491989136</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>6.143771171569824</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2">
+      <c r="A1295" t="n">
+        <v>2.851805210113525</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>19.82255935668945</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2">
+      <c r="A1296" t="n">
+        <v>2.158891677856445</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>14.6579475402832</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2">
+      <c r="A1297" t="n">
+        <v>2.832970857620239</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>16.83858489990234</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2">
+      <c r="A1298" t="n">
+        <v>2.13635778427124</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>11.76466655731201</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2">
+      <c r="A1299" t="n">
+        <v>2.070647478103638</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>15.45806789398193</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2">
+      <c r="A1300" t="n">
+        <v>2.734683513641357</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>15.04061317443848</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2">
+      <c r="A1301" t="n">
+        <v>2.088377475738525</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>15.47158908843994</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2">
+      <c r="A1302" t="n">
+        <v>2.249200344085693</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>15.29109382629395</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2">
+      <c r="A1303" t="n">
+        <v>2.262516260147095</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>13.75903129577637</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2">
+      <c r="A1304" t="n">
+        <v>2.29528546333313</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>14.42724418640137</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2">
+      <c r="A1305" t="n">
+        <v>2.239246368408203</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>13.51324558258057</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2">
+      <c r="A1306" t="n">
+        <v>2.263748645782471</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>13.85540199279785</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2">
+      <c r="A1307" t="n">
+        <v>2.288479089736938</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>16.91986846923828</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2">
+      <c r="A1308" t="n">
+        <v>2.260190010070801</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>17.02006149291992</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2">
+      <c r="A1309" t="n">
+        <v>2.185829162597656</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>15.24640655517578</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2">
+      <c r="A1310" t="n">
+        <v>2.684360980987549</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>7.189765930175781</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2">
+      <c r="A1311" t="n">
+        <v>2.130915880203247</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>8.766965866088867</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2">
+      <c r="A1312" t="n">
+        <v>2.639103889465332</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>4.088959693908691</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2">
+      <c r="A1313" t="n">
+        <v>2.056689262390137</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>7.416811466217041</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2">
+      <c r="A1314" t="n">
+        <v>2.802539348602295</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>17.69247436523438</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2">
+      <c r="A1315" t="n">
+        <v>2.294736862182617</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>15.9703540802002</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2">
+      <c r="A1316" t="n">
+        <v>2.667875051498413</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>6.598789691925049</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2">
+      <c r="A1317" t="n">
+        <v>2.054202079772949</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>7.166762351989746</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2">
+      <c r="A1318" t="n">
+        <v>2.788812637329102</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>17.52701950073242</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2">
+      <c r="A1319" t="n">
+        <v>2.293595790863037</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>15.48116111755371</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2">
+      <c r="A1320" t="n">
+        <v>2.730806827545166</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>13.78331279754639</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2">
+      <c r="A1321" t="n">
+        <v>2.051036834716797</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>13.42106819152832</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2">
+      <c r="A1322" t="n">
+        <v>2.696720600128174</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>9.125723838806152</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2">
+      <c r="A1323" t="n">
+        <v>1.93712854385376</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>7.280373573303223</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2">
+      <c r="A1324" t="n">
+        <v>2.231422901153564</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>19.95382308959961</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2">
+      <c r="A1325" t="n">
+        <v>2.041747331619263</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>11.52754402160645</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2">
+      <c r="A1326" t="n">
+        <v>2.661487579345703</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>6.176177978515625</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2">
+      <c r="A1327" t="n">
+        <v>1.873843669891357</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>6.580819129943848</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2">
+      <c r="A1328" t="n">
+        <v>2.678999423980713</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>7.694958686828613</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2">
+      <c r="A1329" t="n">
+        <v>1.867190718650818</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>7.190030097961426</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2">
+      <c r="A1330" t="n">
+        <v>2.725845575332642</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>12.41643714904785</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2">
+      <c r="A1331" t="n">
+        <v>2.857254981994629</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>19.57124900817871</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2">
+      <c r="A1332" t="n">
+        <v>2.092926502227783</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>14.06141662597656</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2">
+      <c r="A1333" t="n">
+        <v>2.285828113555908</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>13.26896095275879</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2">
+      <c r="A1334" t="n">
+        <v>2.275624752044678</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>13.61318588256836</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2">
+      <c r="A1335" t="n">
+        <v>2.200208187103271</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>14.38660335540771</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2">
+      <c r="A1336" t="n">
+        <v>2.288050174713135</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>16.09053039550781</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2">
+      <c r="A1337" t="n">
+        <v>2.29030704498291</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>15.5920991897583</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2">
+      <c r="A1338" t="n">
+        <v>2.139887809753418</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>12.24807071685791</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2">
+      <c r="A1339" t="n">
+        <v>2.128898143768311</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>13.04476451873779</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2">
+      <c r="A1340" t="n">
+        <v>2.249798059463501</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>11.90308284759521</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2">
+      <c r="A1341" t="n">
+        <v>2.268954038619995</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>19.30235290527344</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2">
+      <c r="A1342" t="n">
+        <v>1.663327693939209</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>16.73283386230469</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2">
+      <c r="A1343" t="n">
+        <v>1.662146210670471</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>15.81770610809326</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2">
+      <c r="A1344" t="n">
+        <v>1.689419984817505</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>15.48628330230713</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2">
+      <c r="A1345" t="n">
+        <v>2.242586135864258</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>20.06999588012695</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2">
+      <c r="A1346" t="n">
+        <v>2.247814893722534</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>18.18799209594727</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2">
+      <c r="A1347" t="n">
+        <v>2.264955759048462</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>18.23013496398926</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2">
+      <c r="A1348" t="n">
+        <v>2.264465093612671</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>18.3477783203125</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2">
+      <c r="A1349" t="n">
+        <v>2.159446239471436</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>16.75075149536133</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2">
+      <c r="A1350" t="n">
+        <v>1.617053151130676</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>16.96338653564453</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2">
+      <c r="A1351" t="n">
+        <v>1.689419984817505</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>15.48628330230713</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2">
+      <c r="A1352" t="n">
+        <v>2.260244607925415</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>14.42541980743408</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2">
+      <c r="A1353" t="n">
+        <v>2.08430814743042</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>14.70961570739746</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2">
+      <c r="A1354" t="n">
+        <v>2.154842138290405</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>13.76873779296875</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2">
+      <c r="A1355" t="n">
+        <v>2.230790376663208</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>18.68967819213867</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2">
+      <c r="A1356" t="n">
+        <v>2.267794132232666</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>13.80976104736328</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2">
+      <c r="A1357" t="n">
+        <v>2.24024224281311</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>19.1011848449707</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2">
+      <c r="A1358" t="n">
+        <v>2.216312408447266</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>18.37006378173828</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2">
+      <c r="A1359" t="n">
+        <v>2.28931450843811</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>16.03372192382812</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2">
+      <c r="A1360" t="n">
+        <v>2.068036317825317</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>14.55459976196289</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2">
+      <c r="A1361" t="n">
+        <v>2.250882625579834</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>14.54471969604492</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2">
+      <c r="A1362" t="n">
+        <v>2.119559764862061</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>14.5237398147583</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2">
+      <c r="A1363" t="n">
+        <v>2.207343101501465</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>14.14211845397949</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2">
+      <c r="A1364" t="n">
+        <v>2.061182737350464</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>15.537109375</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2">
+      <c r="A1365" t="n">
+        <v>2.121548652648926</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>15.09158039093018</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2">
+      <c r="A1366" t="n">
+        <v>2.140979051589966</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>15.31562042236328</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2">
+      <c r="A1367" t="n">
+        <v>1.742558121681213</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>5.662481307983398</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2">
+      <c r="A1368" t="n">
+        <v>1.952666401863098</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>7.751217842102051</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2">
+      <c r="A1369" t="n">
+        <v>2.032120227813721</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>13.28114223480225</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2">
+      <c r="A1370" t="n">
+        <v>1.967504382133484</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>8.070904731750488</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2">
+      <c r="A1371" t="n">
+        <v>1.763932943344116</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>6.039759635925293</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2">
+      <c r="A1372" t="n">
+        <v>2.125146150588989</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>14.07339286804199</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2">
+      <c r="A1373" t="n">
+        <v>1.737574815750122</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>14.98789405822754</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2">
+      <c r="A1374" t="n">
+        <v>2.28835391998291</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>17.21449851989746</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2">
+      <c r="A1375" t="n">
+        <v>2.168967247009277</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>15.69182014465332</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2">
+      <c r="A1376" t="n">
+        <v>2.125146150588989</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>14.07339286804199</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2">
+      <c r="A1377" t="n">
+        <v>2.275272607803345</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>14.96985149383545</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2">
+      <c r="A1378" t="n">
+        <v>2.193172931671143</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>11.65686416625977</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2">
+      <c r="A1379" t="n">
+        <v>2.262022018432617</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>12.90108966827393</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2">
+      <c r="A1380" t="n">
+        <v>2.283126831054688</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>17.5243034362793</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2">
+      <c r="A1381" t="n">
+        <v>1.958705425262451</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>16.12888526916504</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2">
+      <c r="A1382" t="n">
+        <v>2.257035970687866</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>13.98846912384033</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2">
+      <c r="A1383" t="n">
+        <v>2.237566471099854</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>20.52228164672852</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2">
+      <c r="A1384" t="n">
+        <v>2.208690166473389</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>14.14256191253662</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2">
+      <c r="A1385" t="n">
+        <v>2.166400671005249</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>9.424633026123047</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2">
+      <c r="A1386" t="n">
+        <v>2.169106483459473</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>11.47130966186523</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2">
+      <c r="A1387" t="n">
+        <v>2.150308132171631</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>11.365234375</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2">
+      <c r="A1388" t="n">
+        <v>2.1258704662323</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>12.70179271697998</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2">
+      <c r="A1389" t="n">
+        <v>2.103481769561768</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>14.93763542175293</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2">
+      <c r="A1390" t="n">
+        <v>2.725810766220093</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>9.598031997680664</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2">
+      <c r="A1391" t="n">
+        <v>2.172687530517578</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>12.90642356872559</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2">
+      <c r="A1392" t="n">
+        <v>2.188349485397339</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>18.85419845581055</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2">
+      <c r="A1393" t="n">
+        <v>2.796544551849365</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>12.26528549194336</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2">
+      <c r="A1394" t="n">
+        <v>2.285106658935547</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>14.13591957092285</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2">
+      <c r="A1395" t="n">
+        <v>2.792970180511475</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>12.77171325683594</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2">
+      <c r="A1396" t="n">
+        <v>2.263714551925659</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>14.15555763244629</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2">
+      <c r="A1397" t="n">
+        <v>2.74738597869873</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>14.74601364135742</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2">
+      <c r="A1398" t="n">
+        <v>2.176186084747314</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>15.2955493927002</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2">
+      <c r="A1399" t="n">
+        <v>2.18076753616333</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>15.60377979278564</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2">
+      <c r="A1400" t="n">
+        <v>2.138839244842529</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>13.29191112518311</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2">
+      <c r="A1401" t="n">
+        <v>2.28896951675415</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>14.17991542816162</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2">
+      <c r="A1402" t="n">
+        <v>2.279518604278564</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>15.22650241851807</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2">
+      <c r="A1403" t="n">
+        <v>2.284690856933594</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>14.30485916137695</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2">
+      <c r="A1404" t="n">
+        <v>2.24623441696167</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>17.3156681060791</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2">
+      <c r="A1405" t="n">
+        <v>2.159087657928467</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>14.41750907897949</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2">
+      <c r="A1406" t="n">
+        <v>2.173774719238281</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>15.09060573577881</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2">
+      <c r="A1407" t="n">
+        <v>2.266816139221191</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>15.24388790130615</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2">
+      <c r="A1408" t="n">
+        <v>2.189902544021606</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>15.90209102630615</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2">
+      <c r="A1409" t="n">
+        <v>2.733856201171875</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>14.62864112854004</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2">
+      <c r="A1410" t="n">
+        <v>2.163348913192749</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>14.39174556732178</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2">
+      <c r="A1411" t="n">
+        <v>2.748785257339478</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>14.5731258392334</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2">
+      <c r="A1412" t="n">
+        <v>2.176845788955688</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>15.28291320800781</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2">
+      <c r="A1413" t="n">
+        <v>2.759368419647217</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>15.92178249359131</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2">
+      <c r="A1414" t="n">
+        <v>2.192145824432373</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>15.74418163299561</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2">
+      <c r="A1415" t="n">
+        <v>2.578203201293945</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>5.554025650024414</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2">
+      <c r="A1416" t="n">
+        <v>1.9421306848526</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>7.071589469909668</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2">
+      <c r="A1417" t="n">
+        <v>2.163176536560059</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>16.32327651977539</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2">
+      <c r="A1418" t="n">
+        <v>2.075138092041016</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>11.51562309265137</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2">
+      <c r="A1419" t="n">
+        <v>2.517538070678711</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>7.839507102966309</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2">
+      <c r="A1420" t="n">
+        <v>1.931716322898865</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>6.274612426757812</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2">
+      <c r="A1421" t="n">
+        <v>2.773189544677734</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>13.25949287414551</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2">
+      <c r="A1422" t="n">
+        <v>2.290744304656982</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>14.47447967529297</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2">
+      <c r="A1423" t="n">
+        <v>2.746015548706055</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>12.78208160400391</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2">
+      <c r="A1424" t="n">
+        <v>2.312697887420654</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>10.23027229309082</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2">
+      <c r="A1425" t="n">
+        <v>2.203715085983276</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>17.67982864379883</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2">
+      <c r="A1426" t="n">
+        <v>2.747064113616943</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>16.72437286376953</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2">
+      <c r="A1427" t="n">
+        <v>2.206739902496338</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>17.69997978210449</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2">
+      <c r="A1428" t="n">
+        <v>2.155061960220337</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>15.80339908599854</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2">
+      <c r="A1429" t="n">
+        <v>2.167500019073486</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>14.84964942932129</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2">
+      <c r="A1430" t="n">
+        <v>2.265576839447021</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>14.27028560638428</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2">
+      <c r="A1431" t="n">
+        <v>2.136139869689941</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>14.5865364074707</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2">
+      <c r="A1432" t="n">
+        <v>2.169202327728271</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>14.91730117797852</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2">
+      <c r="A1433" t="n">
+        <v>2.229936122894287</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>16.52811622619629</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2">
+      <c r="A1434" t="n">
+        <v>2.176692008972168</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>17.01746559143066</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2">
+      <c r="A1435" t="n">
+        <v>2.143747329711914</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>14.05067157745361</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2">
+      <c r="A1436" t="n">
+        <v>2.799827098846436</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>9.429725646972656</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2">
+      <c r="A1437" t="n">
+        <v>2.230790853500366</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>7.130709648132324</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2">
+      <c r="A1438" t="n">
+        <v>2.770027875900269</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>8.687764167785645</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2">
+      <c r="A1439" t="n">
+        <v>2.050752639770508</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>7.511037826538086</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2">
+      <c r="A1440" t="n">
+        <v>2.789442777633667</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>13.53810787200928</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2">
+      <c r="A1441" t="n">
+        <v>2.256368637084961</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>15.4709005355835</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2">
+      <c r="A1442" t="n">
+        <v>2.566441059112549</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>9.549365997314453</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2">
+      <c r="A1443" t="n">
+        <v>1.973191261291504</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>8.493775367736816</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2">
+      <c r="A1444" t="n">
+        <v>2.759430885314941</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>14.43603897094727</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2">
+      <c r="A1445" t="n">
+        <v>2.240379810333252</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>15.42747974395752</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2">
+      <c r="A1446" t="n">
+        <v>2.714722871780396</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>10.8598575592041</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2">
+      <c r="A1447" t="n">
+        <v>2.190234899520874</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>15.7708797454834</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2">
+      <c r="A1448" t="n">
+        <v>2.609772443771362</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>8.591909408569336</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2">
+      <c r="A1449" t="n">
+        <v>2.027070760726929</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>8.83781623840332</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2">
+      <c r="A1450" t="n">
+        <v>2.253589391708374</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>17.10190582275391</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2">
+      <c r="A1451" t="n">
+        <v>1.927832365036011</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>15.43006420135498</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2">
+      <c r="A1452" t="n">
+        <v>2.685709476470947</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>9.827663421630859</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2">
+      <c r="A1453" t="n">
+        <v>1.965494275093079</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>7.299282550811768</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2">
+      <c r="A1454" t="n">
+        <v>2.585182428359985</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>9.910499572753906</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2">
+      <c r="A1455" t="n">
+        <v>1.964934229850769</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>7.180691719055176</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2">
+      <c r="A1456" t="n">
+        <v>2.665092945098877</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>11.77215576171875</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2">
+      <c r="A1457" t="n">
+        <v>2.735353469848633</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>13.43002223968506</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2">
+      <c r="A1458" t="n">
+        <v>2.160633325576782</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>12.19879627227783</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2">
+      <c r="A1459" t="n">
+        <v>2.244258403778076</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>13.69622421264648</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2">
+      <c r="A1460" t="n">
+        <v>2.198013782501221</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>14.53354835510254</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2">
+      <c r="A1461" t="n">
+        <v>2.199937105178833</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>14.28048515319824</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2">
+      <c r="A1462" t="n">
+        <v>2.280907154083252</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>14.94218730926514</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2">
+      <c r="A1463" t="n">
+        <v>2.284112930297852</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>14.59470462799072</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2">
+      <c r="A1464" t="n">
+        <v>2.090738773345947</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>14.26471042633057</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2">
+      <c r="A1465" t="n">
+        <v>2.292702674865723</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>10.36873340606689</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2">
+      <c r="A1466" t="n">
+        <v>2.286454200744629</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>11.50370311737061</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2">
+      <c r="A1467" t="n">
+        <v>2.218656063079834</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>18.09280014038086</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2">
+      <c r="A1468" t="n">
+        <v>1.675822734832764</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>20.03122329711914</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2">
+      <c r="A1469" t="n">
+        <v>1.67800509929657</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>20.75646781921387</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2">
+      <c r="A1470" t="n">
+        <v>1.68996000289917</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>20.54098892211914</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2">
+      <c r="A1471" t="n">
+        <v>2.251176595687866</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>17.42343521118164</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2">
+      <c r="A1472" t="n">
+        <v>2.177927017211914</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>17.63605117797852</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2">
+      <c r="A1473" t="n">
+        <v>2.191795587539673</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>17.77420997619629</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2">
+      <c r="A1474" t="n">
+        <v>2.192385673522949</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>17.84299468994141</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2">
+      <c r="A1475" t="n">
+        <v>2.181717157363892</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>15.59476470947266</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2">
+      <c r="A1476" t="n">
+        <v>1.644954204559326</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>20.45303535461426</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2">
+      <c r="A1477" t="n">
+        <v>1.68996000289917</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>20.54098892211914</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2">
+      <c r="A1478" t="n">
+        <v>2.162700653076172</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>15.33691787719727</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2">
+      <c r="A1479" t="n">
+        <v>2.148364067077637</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>13.86232566833496</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2">
+      <c r="A1480" t="n">
+        <v>2.298746824264526</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>12.52026557922363</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2">
+      <c r="A1481" t="n">
+        <v>2.177435874938965</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>17.66958999633789</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2">
+      <c r="A1482" t="n">
+        <v>2.286561489105225</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>13.06938648223877</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2">
+      <c r="A1483" t="n">
+        <v>2.260167121887207</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>16.53618621826172</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2">
+      <c r="A1484" t="n">
+        <v>2.17563271522522</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>17.07261276245117</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2">
+      <c r="A1485" t="n">
+        <v>2.280206918716431</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>14.94124031066895</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2">
+      <c r="A1486" t="n">
+        <v>2.098927021026611</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>13.58935832977295</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2">
+      <c r="A1487" t="n">
+        <v>2.151985883712769</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>15.35842132568359</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2">
+      <c r="A1488" t="n">
+        <v>2.224673748016357</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>13.26852226257324</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2">
+      <c r="A1489" t="n">
+        <v>2.207601070404053</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>14.06023597717285</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2">
+      <c r="A1490" t="n">
+        <v>2.144720792770386</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>14.73737144470215</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2">
+      <c r="A1491" t="n">
+        <v>2.110030889511108</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>15.62711429595947</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2">
+      <c r="A1492" t="n">
+        <v>2.287278652191162</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>14.47354412078857</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2">
+      <c r="A1493" t="n">
+        <v>1.871139764785767</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>4.628853797912598</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2">
+      <c r="A1494" t="n">
+        <v>2.064400911331177</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>9.489411354064941</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2">
+      <c r="A1495" t="n">
+        <v>2.196210145950317</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>15.57972049713135</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2">
+      <c r="A1496" t="n">
+        <v>2.075403690338135</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>10.04323768615723</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2">
+      <c r="A1497" t="n">
+        <v>1.883110761642456</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>5.209390640258789</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2">
+      <c r="A1498" t="n">
+        <v>2.095279932022095</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>15.32835388183594</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2">
+      <c r="A1499" t="n">
+        <v>1.714733600616455</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>20.12865257263184</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2">
+      <c r="A1500" t="n">
+        <v>2.238063097000122</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>16.56712341308594</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2">
+      <c r="A1501" t="n">
+        <v>2.156388282775879</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>13.6551513671875</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2">
+      <c r="A1502" t="n">
+        <v>2.095279932022095</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>15.32835388183594</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2">
+      <c r="A1503" t="n">
+        <v>2.187247276306152</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>15.65928077697754</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2">
+      <c r="A1504" t="n">
+        <v>2.088548421859741</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>12.79249382019043</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2">
+      <c r="A1505" t="n">
+        <v>2.286799430847168</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>12.38475608825684</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2">
+      <c r="A1506" t="n">
+        <v>2.263753652572632</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>16.14846420288086</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2">
+      <c r="A1507" t="n">
+        <v>1.957373142242432</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>17.72553253173828</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2">
+      <c r="A1508" t="n">
+        <v>2.273596525192261</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>13.29104804992676</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2">
+      <c r="A1509" t="n">
+        <v>2.190767526626587</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>19.06570816040039</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2">
+      <c r="A1510" t="n">
+        <v>2.125558137893677</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>14.26107597351074</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2">
+      <c r="A1511" t="n">
+        <v>2.070773363113403</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>11.17480564117432</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2">
+      <c r="A1512" t="n">
+        <v>2.075693607330322</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>12.07000255584717</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2">
+      <c r="A1513" t="n">
+        <v>2.071186304092407</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>11.40689086914062</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2">
+      <c r="A1514" t="n">
+        <v>2.181787967681885</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>10.19760608673096</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2">
+      <c r="A1515" t="n">
+        <v>2.185648679733276</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>5.166547775268555</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2">
+      <c r="A1516" t="n">
+        <v>2.756807327270508</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>12.10862922668457</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2">
+      <c r="A1517" t="n">
+        <v>2.113404273986816</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>13.3133716583252</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2">
+      <c r="A1518" t="n">
+        <v>1.9207763671875</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>8.682473182678223</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2">
+      <c r="A1519" t="n">
+        <v>2.573188781738281</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>16.2025146484375</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2">
+      <c r="A1520" t="n">
+        <v>2.379332542419434</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>10.82881164550781</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2">
+      <c r="A1521" t="n">
+        <v>3.054389715194702</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>7.395399570465088</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2">
+      <c r="A1522" t="n">
+        <v>2.335431098937988</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>8.374162673950195</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2">
+      <c r="A1523" t="n">
+        <v>2.684719562530518</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>14.09843254089355</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2">
+      <c r="A1524" t="n">
+        <v>2.04279613494873</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>11.28073787689209</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2">
+      <c r="A1525" t="n">
+        <v>2.079911947250366</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>11.91511535644531</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2">
+      <c r="A1526" t="n">
+        <v>2.186381101608276</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>10.66549110412598</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2">
+      <c r="A1527" t="n">
+        <v>2.293590784072876</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>15.01858615875244</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2">
+      <c r="A1528" t="n">
+        <v>2.182355403900146</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>14.82647323608398</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2">
+      <c r="A1529" t="n">
+        <v>2.084426879882812</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>11.08482074737549</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2">
+      <c r="A1530" t="n">
+        <v>1.935796856880188</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>10.32739925384521</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2">
+      <c r="A1531" t="n">
+        <v>1.919613122940063</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>9.525143623352051</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2">
+      <c r="A1532" t="n">
+        <v>2.015422821044922</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>11.17087554931641</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2">
+      <c r="A1533" t="n">
+        <v>1.83376145362854</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>10.45171737670898</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2">
+      <c r="A1534" t="n">
+        <v>2.034816741943359</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>12.30731105804443</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2">
+      <c r="A1535" t="n">
+        <v>2.785148143768311</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>18.33458137512207</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2">
+      <c r="A1536" t="n">
+        <v>2.233884811401367</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>13.58019733428955</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2">
+      <c r="A1537" t="n">
+        <v>2.746039390563965</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>19.18808746337891</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2">
+      <c r="A1538" t="n">
+        <v>2.197546243667603</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>14.18513488769531</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2">
+      <c r="A1539" t="n">
+        <v>2.819943189620972</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>17.50548362731934</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2">
+      <c r="A1540" t="n">
+        <v>2.221157550811768</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>13.51732158660889</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2">
+      <c r="A1541" t="n">
+        <v>2.692852258682251</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>7.093420028686523</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2">
+      <c r="A1542" t="n">
+        <v>1.856250524520874</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>4.814915657043457</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2">
+      <c r="A1543" t="n">
+        <v>1.969313383102417</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>13.39359378814697</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2">
+      <c r="A1544" t="n">
+        <v>1.842826247215271</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>4.558414459228516</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2">
+      <c r="A1545" t="n">
+        <v>2.484290599822998</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>11.04376220703125</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2">
+      <c r="A1546" t="n">
+        <v>1.769851207733154</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>5.959043502807617</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2">
+      <c r="A1547" t="n">
+        <v>2.482812881469727</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>9.557524681091309</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2">
+      <c r="A1548" t="n">
+        <v>2.105998754501343</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>12.59323310852051</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2">
+      <c r="A1549" t="n">
+        <v>2.598450183868408</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>8.854246139526367</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2">
+      <c r="A1550" t="n">
+        <v>2.252191305160522</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>8.795822143554688</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2">
+      <c r="A1551" t="n">
+        <v>2.096385955810547</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>14.84277820587158</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2">
+      <c r="A1552" t="n">
+        <v>2.845975399017334</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>21.02254295349121</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2">
+      <c r="A1553" t="n">
+        <v>2.191117286682129</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>16.53733825683594</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2">
+      <c r="A1554" t="n">
+        <v>2.351905345916748</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>19.73866653442383</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2">
+      <c r="A1555" t="n">
+        <v>2.413996934890747</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>18.57546806335449</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2">
+      <c r="A1556" t="n">
+        <v>2.260486125946045</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>12.12081527709961</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2">
+      <c r="A1557" t="n">
+        <v>2.400211811065674</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>19.73082733154297</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2">
+      <c r="A1558" t="n">
+        <v>2.46497631072998</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>20.28377914428711</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2">
+      <c r="A1559" t="n">
+        <v>2.447484016418457</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>21.75869750976562</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:2">
+      <c r="A1560" t="n">
+        <v>2.302079916000366</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>19.65597534179688</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2">
+      <c r="A1561" t="n">
+        <v>2.091426372528076</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>16.21486663818359</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2">
+      <c r="A1562" t="n">
+        <v>2.842348098754883</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>7.543528079986572</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2">
+      <c r="A1563" t="n">
+        <v>2.067394018173218</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>5.365228652954102</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2">
+      <c r="A1564" t="n">
+        <v>2.555400371551514</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>9.355085372924805</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2">
+      <c r="A1565" t="n">
+        <v>1.991212606430054</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>4.526761531829834</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2">
+      <c r="A1566" t="n">
+        <v>2.91400146484375</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>13.35816860198975</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2">
+      <c r="A1567" t="n">
+        <v>2.144601821899414</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>11.02855968475342</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2">
+      <c r="A1568" t="n">
+        <v>2.915623188018799</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>7.98982048034668</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2">
+      <c r="A1569" t="n">
+        <v>2.023702144622803</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>3.300626277923584</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2">
+      <c r="A1570" t="n">
+        <v>2.673988342285156</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>10.62063026428223</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2">
+      <c r="A1571" t="n">
+        <v>1.999000549316406</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>8.992132186889648</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2">
+      <c r="A1572" t="n">
+        <v>2.737864971160889</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>11.25195217132568</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2">
+      <c r="A1573" t="n">
+        <v>1.806755065917969</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>6.583113193511963</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2">
+      <c r="A1574" t="n">
+        <v>2.900353908538818</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>7.185408592224121</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2">
+      <c r="A1575" t="n">
+        <v>2.167516708374023</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>4.608144283294678</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2">
+      <c r="A1576" t="n">
+        <v>2.292819738388062</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>16.89316558837891</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2">
+      <c r="A1577" t="n">
+        <v>2.371516227722168</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>7.25384521484375</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2">
+      <c r="A1578" t="n">
+        <v>2.59217643737793</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>11.19068622589111</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2">
+      <c r="A1579" t="n">
+        <v>2.031979084014893</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>7.186835289001465</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2">
+      <c r="A1580" t="n">
+        <v>2.562817573547363</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>11.9345760345459</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2">
+      <c r="A1581" t="n">
+        <v>1.967341423034668</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>6.537338256835938</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2">
+      <c r="A1582" t="n">
+        <v>2.457326412200928</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>11.85311985015869</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2">
+      <c r="A1583" t="n">
+        <v>1.948099255561829</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>15.94492340087891</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2">
+      <c r="A1584" t="n">
+        <v>1.957743883132935</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>27.41743469238281</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2">
+      <c r="A1585" t="n">
+        <v>2.294569969177246</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>16.11248207092285</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2">
+      <c r="A1586" t="n">
+        <v>2.13737964630127</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>13.18928813934326</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2">
+      <c r="A1587" t="n">
+        <v>2.048536777496338</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>16.37396812438965</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2">
+      <c r="A1588" t="n">
+        <v>1.991595983505249</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>13.40927124023438</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2">
+      <c r="A1589" t="n">
+        <v>2.236157178878784</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>9.849264144897461</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2">
+      <c r="A1590" t="n">
+        <v>2.247018814086914</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>12.25771331787109</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2">
+      <c r="A1591" t="n">
+        <v>2.203952312469482</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>10.75554847717285</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2">
+      <c r="A1592" t="n">
+        <v>2.254910469055176</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>12.39860820770264</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2">
+      <c r="A1593" t="n">
+        <v>2.302513837814331</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>19.21880912780762</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2">
+      <c r="A1594" t="n">
+        <v>1.795116782188416</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>17.23154830932617</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2">
+      <c r="A1595" t="n">
+        <v>1.745857238769531</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>19.87723159790039</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2">
+      <c r="A1596" t="n">
+        <v>1.675507664680481</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>21.55279541015625</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2">
+      <c r="A1597" t="n">
+        <v>2.066266298294067</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>11.79712390899658</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2">
+      <c r="A1598" t="n">
+        <v>2.042127370834351</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>13.95941734313965</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2">
+      <c r="A1599" t="n">
+        <v>2.255165815353394</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>19.45868682861328</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2">
+      <c r="A1600" t="n">
+        <v>2.253322124481201</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>19.37181091308594</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2">
+      <c r="A1601" t="n">
+        <v>2.046823501586914</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>15.93119525909424</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2">
+      <c r="A1602" t="n">
+        <v>1.679078102111816</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>19.55418586730957</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2">
+      <c r="A1603" t="n">
+        <v>1.675507664680481</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>21.55279541015625</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2">
+      <c r="A1604" t="n">
+        <v>2.383952140808105</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>19.02281951904297</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2">
+      <c r="A1605" t="n">
+        <v>2.356418132781982</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>12.90590953826904</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:2">
+      <c r="A1606" t="n">
+        <v>2.260360479354858</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>14.77613925933838</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2">
+      <c r="A1607" t="n">
+        <v>2.341616868972778</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>23.9449577331543</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2">
+      <c r="A1608" t="n">
+        <v>2.516788482666016</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>20.85739898681641</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:2">
+      <c r="A1609" t="n">
+        <v>2.485327959060669</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>23.62908935546875</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:2">
+      <c r="A1610" t="n">
+        <v>2.290313959121704</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>22.85828399658203</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2">
+      <c r="A1611" t="n">
+        <v>2.15384840965271</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>9.582687377929688</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2">
+      <c r="A1612" t="n">
+        <v>1.907383680343628</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>21.12754249572754</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2">
+      <c r="A1613" t="n">
+        <v>2.244727611541748</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>15.92580223083496</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2">
+      <c r="A1614" t="n">
+        <v>2.2517249584198</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>16.8087043762207</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2">
+      <c r="A1615" t="n">
+        <v>2.267586946487427</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>18.78671646118164</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2">
+      <c r="A1616" t="n">
+        <v>2.03633713722229</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>18.8527717590332</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2">
+      <c r="A1617" t="n">
+        <v>2.054285526275635</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>20.99447441101074</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2">
+      <c r="A1618" t="n">
+        <v>2.180207490921021</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>13.43995761871338</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2">
+      <c r="A1619" t="n">
+        <v>2.051061391830444</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>7.47665548324585</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2">
+      <c r="A1620" t="n">
+        <v>2.174946308135986</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>13.62115478515625</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2">
+      <c r="A1621" t="n">
+        <v>2.174112796783447</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>17.94116592407227</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2">
+      <c r="A1622" t="n">
+        <v>2.129575729370117</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>10.34080696105957</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2">
+      <c r="A1623" t="n">
+        <v>1.695587992668152</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>6.169339179992676</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2">
+      <c r="A1624" t="n">
+        <v>1.86441445350647</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>10.59072208404541</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2">
+      <c r="A1625" t="n">
+        <v>1.876891851425171</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>15.83710289001465</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2">
+      <c r="A1626" t="n">
+        <v>2.423051595687866</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>20.90379905700684</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2">
+      <c r="A1627" t="n">
+        <v>2.081611394882202</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>17.41275024414062</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2">
+      <c r="A1628" t="n">
+        <v>1.86441445350647</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>10.59072208404541</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2">
+      <c r="A1629" t="n">
+        <v>2.448009252548218</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>20.42707633972168</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2">
+      <c r="A1630" t="n">
+        <v>1.977526068687439</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>5.28363561630249</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2">
+      <c r="A1631" t="n">
+        <v>2.1006760597229</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>6.606130599975586</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2">
+      <c r="A1632" t="n">
+        <v>2.012748241424561</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>12.57239437103271</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2">
+      <c r="A1633" t="n">
+        <v>2.127926826477051</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>17.71433448791504</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2">
+      <c r="A1634" t="n">
+        <v>2.354505300521851</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>10.12860488891602</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2">
+      <c r="A1635" t="n">
+        <v>2.361600160598755</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>24.24692916870117</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2">
+      <c r="A1636" t="n">
+        <v>2.2847580909729</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>19.59908676147461</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2">
+      <c r="A1637" t="n">
+        <v>2.320629596710205</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>13.11911582946777</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2">
+      <c r="A1638" t="n">
+        <v>1.984707474708557</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>8.366172790527344</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2">
+      <c r="A1639" t="n">
+        <v>2.004546165466309</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>10.30558967590332</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2">
+      <c r="A1640" t="n">
+        <v>2.148817300796509</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>13.35782909393311</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2">
+      <c r="A1641" t="n">
+        <v>2.274251937866211</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>5.053119659423828</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2">
+      <c r="A1642" t="n">
+        <v>2.833740711212158</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>14.64936637878418</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2">
+      <c r="A1643" t="n">
+        <v>2.154579162597656</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>8.100146293640137</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2">
+      <c r="A1644" t="n">
+        <v>1.860759496688843</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>11.68565940856934</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2">
+      <c r="A1645" t="n">
+        <v>2.697122573852539</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>14.26644611358643</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2">
+      <c r="A1646" t="n">
+        <v>2.352565050125122</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>7.540477752685547</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:2">
+      <c r="A1647" t="n">
+        <v>3.095631837844849</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>11.14558029174805</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:2">
+      <c r="A1648" t="n">
+        <v>2.248319625854492</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>3.96629524230957</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2">
+      <c r="A1649" t="n">
+        <v>2.680601596832275</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>13.99731349945068</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2">
+      <c r="A1650" t="n">
+        <v>2.029692649841309</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>13.36587619781494</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2">
+      <c r="A1651" t="n">
+        <v>2.069364070892334</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>11.55471611022949</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2">
+      <c r="A1652" t="n">
+        <v>2.074394941329956</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>9.086809158325195</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2">
+      <c r="A1653" t="n">
+        <v>2.289944410324097</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>16.89703750610352</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2">
+      <c r="A1654" t="n">
+        <v>2.215390682220459</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>16.19434928894043</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2">
+      <c r="A1655" t="n">
+        <v>2.149413108825684</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>11.77718544006348</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2">
+      <c r="A1656" t="n">
+        <v>1.918940782546997</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>13.9277811050415</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2">
+      <c r="A1657" t="n">
+        <v>1.955366969108582</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>14.19806957244873</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2">
+      <c r="A1658" t="n">
+        <v>2.02319860458374</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>11.55554294586182</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:2">
+      <c r="A1659" t="n">
+        <v>1.897122979164124</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>14.7972297668457</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2">
+      <c r="A1660" t="n">
+        <v>2.057937145233154</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>10.59621620178223</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2">
+      <c r="A1661" t="n">
+        <v>2.693179368972778</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>18.90581130981445</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2">
+      <c r="A1662" t="n">
+        <v>2.13214111328125</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>13.4369649887085</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2">
+      <c r="A1663" t="n">
+        <v>2.729794502258301</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>21.05644607543945</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2">
+      <c r="A1664" t="n">
+        <v>2.141095161437988</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>13.52439117431641</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2">
+      <c r="A1665" t="n">
+        <v>2.86795711517334</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>27.38520812988281</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2">
+      <c r="A1666" t="n">
+        <v>2.17180347442627</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>11.21406555175781</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2">
+      <c r="A1667" t="n">
+        <v>2.632896423339844</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>7.951666355133057</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2">
+      <c r="A1668" t="n">
+        <v>1.957215547561646</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>6.178698062896729</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2">
+      <c r="A1669" t="n">
+        <v>1.994465351104736</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>18.26789474487305</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2">
+      <c r="A1670" t="n">
+        <v>1.943055510520935</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>7.303291797637939</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2">
+      <c r="A1671" t="n">
+        <v>2.480886459350586</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>6.069478988647461</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2">
+      <c r="A1672" t="n">
+        <v>1.90818202495575</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>6.096804618835449</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2">
+      <c r="A1673" t="n">
+        <v>2.701197385787964</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>11.95408058166504</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2">
+      <c r="A1674" t="n">
+        <v>2.118700504302979</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>15.65273284912109</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2">
+      <c r="A1675" t="n">
+        <v>2.723826169967651</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>9.871732711791992</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2">
+      <c r="A1676" t="n">
+        <v>2.06955885887146</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>14.0997142791748</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2">
+      <c r="A1677" t="n">
+        <v>2.110193729400635</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>12.81736660003662</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2">
+      <c r="A1678" t="n">
+        <v>2.861944675445557</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>35.22868347167969</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2">
+      <c r="A1679" t="n">
+        <v>2.198298931121826</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>14.24132061004639</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2">
+      <c r="A1680" t="n">
+        <v>2.357072591781616</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>19.80631828308105</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2">
+      <c r="A1681" t="n">
+        <v>2.345643758773804</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>18.74713325500488</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2">
+      <c r="A1682" t="n">
+        <v>2.203684568405151</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>15.6559944152832</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2">
+      <c r="A1683" t="n">
+        <v>2.357075929641724</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>17.98933029174805</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2">
+      <c r="A1684" t="n">
+        <v>2.376386165618896</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>18.27057266235352</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2">
+      <c r="A1685" t="n">
+        <v>2.42185640335083</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>22.59964752197266</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2">
+      <c r="A1686" t="n">
+        <v>2.317499160766602</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>21.23742294311523</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2">
+      <c r="A1687" t="n">
+        <v>2.213574886322021</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>16.88154220581055</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2">
+      <c r="A1688" t="n">
+        <v>2.790174007415771</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>3.861220121383667</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2">
+      <c r="A1689" t="n">
+        <v>1.959923624992371</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>8.803493499755859</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2">
+      <c r="A1690" t="n">
+        <v>2.664406776428223</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>6.505976676940918</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2">
+      <c r="A1691" t="n">
+        <v>1.940185785293579</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>7.411781787872314</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2">
+      <c r="A1692" t="n">
+        <v>2.829517364501953</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>13.88910007476807</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2">
+      <c r="A1693" t="n">
+        <v>2.128507614135742</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>13.04612255096436</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2">
+      <c r="A1694" t="n">
+        <v>2.689102411270142</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>6.474847793579102</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2">
+      <c r="A1695" t="n">
+        <v>1.932438135147095</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>5.426305294036865</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2">
+      <c r="A1696" t="n">
+        <v>2.772809982299805</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>9.650045394897461</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2">
+      <c r="A1697" t="n">
+        <v>2.010607957839966</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>12.73514080047607</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:2">
+      <c r="A1698" t="n">
+        <v>2.664995193481445</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>5.387323379516602</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2">
+      <c r="A1699" t="n">
+        <v>1.928964853286743</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>8.207254409790039</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2">
+      <c r="A1700" t="n">
+        <v>2.776877403259277</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>7.687481880187988</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2">
+      <c r="A1701" t="n">
+        <v>2.285120725631714</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>7.630098342895508</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2">
+      <c r="A1702" t="n">
+        <v>2.302332162857056</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>13.40608501434326</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2">
+      <c r="A1703" t="n">
+        <v>2.351712703704834</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>3.373631238937378</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2">
+      <c r="A1704" t="n">
+        <v>2.540139198303223</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>10.8435115814209</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2">
+      <c r="A1705" t="n">
+        <v>1.993732690811157</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>8.206439971923828</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2">
+      <c r="A1706" t="n">
+        <v>2.432858943939209</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>10.03948020935059</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2">
+      <c r="A1707" t="n">
+        <v>1.963014960289001</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>7.881886005401611</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2">
+      <c r="A1708" t="n">
+        <v>2.266234397888184</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>13.43032264709473</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2">
+      <c r="A1709" t="n">
+        <v>2.153825759887695</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>20.29316139221191</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2">
+      <c r="A1710" t="n">
+        <v>2.037510871887207</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>22.83251953125</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:2">
+      <c r="A1711" t="n">
+        <v>2.264538288116455</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>19.18084716796875</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2">
+      <c r="A1712" t="n">
+        <v>2.156819581985474</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>17.64078140258789</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2">
+      <c r="A1713" t="n">
+        <v>2.144365549087524</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>17.32946014404297</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2">
+      <c r="A1714" t="n">
+        <v>1.998656034469604</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>18.62950134277344</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2">
+      <c r="A1715" t="n">
+        <v>2.220184564590454</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>8.795863151550293</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2">
+      <c r="A1716" t="n">
+        <v>2.291866779327393</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>10.60196876525879</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2">
+      <c r="A1717" t="n">
+        <v>2.083620548248291</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>14.2638053894043</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2">
+      <c r="A1718" t="n">
+        <v>2.185436248779297</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>16.14088249206543</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2">
+      <c r="A1719" t="n">
+        <v>2.331953763961792</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>17.32505798339844</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2">
+      <c r="A1720" t="n">
+        <v>1.907889246940613</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>18.60616302490234</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2">
+      <c r="A1721" t="n">
+        <v>1.471440434455872</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>21.21795463562012</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2">
+      <c r="A1722" t="n">
+        <v>1.444517254829407</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>21.45435523986816</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2">
+      <c r="A1723" t="n">
+        <v>1.943719863891602</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>13.72857475280762</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2">
+      <c r="A1724" t="n">
+        <v>2.045270681381226</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>14.92372417449951</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:2">
+      <c r="A1725" t="n">
+        <v>2.25929594039917</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>22.47658538818359</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:2">
+      <c r="A1726" t="n">
+        <v>2.259572982788086</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>21.99168968200684</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2">
+      <c r="A1727" t="n">
+        <v>2.090681791305542</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>16.82298851013184</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2">
+      <c r="A1728" t="n">
+        <v>1.679425358772278</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>21.07607841491699</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2">
+      <c r="A1729" t="n">
+        <v>1.444517254829407</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>21.45435523986816</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2">
+      <c r="A1730" t="n">
+        <v>2.352475881576538</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>18.88701248168945</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2">
+      <c r="A1731" t="n">
+        <v>2.357765674591064</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>12.46938514709473</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:2">
+      <c r="A1732" t="n">
+        <v>2.194994688034058</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>19.39994430541992</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:2">
+      <c r="A1733" t="n">
+        <v>2.398412704467773</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>23.18915939331055</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:2">
+      <c r="A1734" t="n">
+        <v>2.418309688568115</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>22.13556098937988</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2">
+      <c r="A1735" t="n">
+        <v>2.570967197418213</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>20.85579681396484</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2">
+      <c r="A1736" t="n">
+        <v>2.376477956771851</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>22.94363021850586</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2">
+      <c r="A1737" t="n">
+        <v>2.152945756912231</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>9.756311416625977</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2">
+      <c r="A1738" t="n">
+        <v>2.058815956115723</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>17.86945724487305</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:2">
+      <c r="A1739" t="n">
+        <v>2.25929594039917</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>18.20887565612793</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2">
+      <c r="A1740" t="n">
+        <v>2.251454830169678</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>19.59883308410645</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2">
+      <c r="A1741" t="n">
+        <v>2.320062160491943</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>21.70812034606934</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:2">
+      <c r="A1742" t="n">
+        <v>2.185920715332031</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>18.23981857299805</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2">
+      <c r="A1743" t="n">
+        <v>2.184040546417236</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>21.80926322937012</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2">
+      <c r="A1744" t="n">
+        <v>2.212434768676758</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>14.78305721282959</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2">
+      <c r="A1745" t="n">
+        <v>2.028450489044189</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>7.043444633483887</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2">
+      <c r="A1746" t="n">
+        <v>2.087338924407959</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>12.69543838500977</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2">
+      <c r="A1747" t="n">
+        <v>2.180608749389648</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>18.21917915344238</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2">
+      <c r="A1748" t="n">
+        <v>2.017202377319336</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>9.707582473754883</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2">
+      <c r="A1749" t="n">
+        <v>1.881866455078125</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>5.284463405609131</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2">
+      <c r="A1750" t="n">
+        <v>2.029793262481689</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>10.26861953735352</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2">
+      <c r="A1751" t="n">
+        <v>1.795450091362</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>17.82738876342773</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2">
+      <c r="A1752" t="n">
+        <v>2.408602714538574</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>22.35456848144531</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2">
+      <c r="A1753" t="n">
+        <v>2.248815059661865</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>17.77650451660156</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2">
+      <c r="A1754" t="n">
+        <v>2.029793262481689</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>10.26861953735352</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2">
+      <c r="A1755" t="n">
+        <v>2.387885332107544</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>20.44219207763672</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2">
+      <c r="A1756" t="n">
+        <v>1.99439263343811</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>6.294516086578369</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2">
+      <c r="A1757" t="n">
+        <v>2.142213821411133</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>6.551553249359131</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2">
+      <c r="A1758" t="n">
+        <v>1.984339833259583</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>17.12591171264648</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2">
+      <c r="A1759" t="n">
+        <v>2.246074914932251</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>15.1041316986084</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2">
+      <c r="A1760" t="n">
+        <v>2.316659688949585</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>9.476316452026367</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2">
+      <c r="A1761" t="n">
+        <v>2.43543004989624</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>24.07630157470703</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2">
+      <c r="A1762" t="n">
+        <v>2.356045246124268</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>18.82307052612305</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2">
+      <c r="A1763" t="n">
+        <v>2.207550764083862</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>12.82691097259521</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2">
+      <c r="A1764" t="n">
+        <v>2.06026816368103</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>10.48744010925293</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2">
+      <c r="A1765" t="n">
+        <v>2.158178329467773</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>10.97914695739746</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2">
+      <c r="A1766" t="n">
+        <v>2.199005603790283</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>11.70209884643555</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2">
+      <c r="A1767" t="n">
+        <v>2.277564525604248</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>8.752019882202148</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:2">
+      <c r="A1768" t="n">
+        <v>2.924081325531006</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>10.34662437438965</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:2">
+      <c r="A1769" t="n">
+        <v>2.134117364883423</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>11.18091583251953</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:2">
+      <c r="A1770" t="n">
+        <v>2.077601671218872</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>9.545173645019531</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2">
+      <c r="A1771" t="n">
+        <v>2.385065317153931</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>16.02324676513672</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2">
+      <c r="A1772" t="n">
+        <v>2.433854818344116</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>11.84793663024902</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2">
+      <c r="A1773" t="n">
+        <v>3.049330711364746</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>9.782402038574219</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2">
+      <c r="A1774" t="n">
+        <v>2.372745037078857</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>8.047952651977539</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:2">
+      <c r="A1775" t="n">
+        <v>2.70955228805542</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>16.38342666625977</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2">
+      <c r="A1776" t="n">
+        <v>1.998147487640381</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>13.99174499511719</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2">
+      <c r="A1777" t="n">
+        <v>2.039689302444458</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>13.45911121368408</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2">
+      <c r="A1778" t="n">
+        <v>2.135179996490479</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>10.17346572875977</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2">
+      <c r="A1779" t="n">
+        <v>2.272547006607056</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>17.93096542358398</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2">
+      <c r="A1780" t="n">
+        <v>2.191307544708252</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>18.4693489074707</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2">
+      <c r="A1781" t="n">
+        <v>2.122631549835205</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>15.76256942749023</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2">
+      <c r="A1782" t="n">
+        <v>1.984025835990906</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>15.73065853118896</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2">
+      <c r="A1783" t="n">
+        <v>1.879955291748047</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>13.87922286987305</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2">
+      <c r="A1784" t="n">
+        <v>1.984090566635132</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>13.03811073303223</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2">
+      <c r="A1785" t="n">
+        <v>1.888211011886597</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>15.31631660461426</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2">
+      <c r="A1786" t="n">
+        <v>1.996268749237061</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>13.43430709838867</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2">
+      <c r="A1787" t="n">
+        <v>2.768124103546143</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>16.86762619018555</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2">
+      <c r="A1788" t="n">
+        <v>2.179171085357666</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>13.28544807434082</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2">
+      <c r="A1789" t="n">
+        <v>2.678563594818115</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>17.51451110839844</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2">
+      <c r="A1790" t="n">
+        <v>2.144874334335327</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>14.17768669128418</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2">
+      <c r="A1791" t="n">
+        <v>2.843976974487305</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>18.24789810180664</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2">
+      <c r="A1792" t="n">
+        <v>2.168625116348267</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>13.54166126251221</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2">
+      <c r="A1793" t="n">
+        <v>2.615866661071777</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>4.825313568115234</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2">
+      <c r="A1794" t="n">
+        <v>1.982826352119446</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>5.19499683380127</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2">
+      <c r="A1795" t="n">
+        <v>2.018749952316284</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>14.68293571472168</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2">
+      <c r="A1796" t="n">
+        <v>1.954452514648438</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>5.39296293258667</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2">
+      <c r="A1797" t="n">
+        <v>2.35204553604126</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>8.676931381225586</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2">
+      <c r="A1798" t="n">
+        <v>1.772008180618286</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>7.681117534637451</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2">
+      <c r="A1799" t="n">
+        <v>2.813894271850586</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>17.17848014831543</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2">
+      <c r="A1800" t="n">
+        <v>2.107510805130005</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>16.71901702880859</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2">
+      <c r="A1801" t="n">
+        <v>2.925942659378052</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>14.50327205657959</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2">
+      <c r="A1802" t="n">
+        <v>2.181658744812012</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>11.2481689453125</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2">
+      <c r="A1803" t="n">
+        <v>2.060035467147827</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>15.51111793518066</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2">
+      <c r="A1804" t="n">
+        <v>2.731308221817017</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>19.04316902160645</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2">
+      <c r="A1805" t="n">
+        <v>2.141098260879517</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>16.61979675292969</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2">
+      <c r="A1806" t="n">
+        <v>2.399610042572021</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>17.11376762390137</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2">
+      <c r="A1807" t="n">
+        <v>2.378262996673584</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>17.55829811096191</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2">
+      <c r="A1808" t="n">
+        <v>2.29529881477356</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>13.48795127868652</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2">
+      <c r="A1809" t="n">
+        <v>2.393527030944824</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>17.98955535888672</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2">
+      <c r="A1810" t="n">
+        <v>2.398052215576172</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>19.1499137878418</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2">
+      <c r="A1811" t="n">
+        <v>2.405149936676025</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>20.32198333740234</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2">
+      <c r="A1812" t="n">
+        <v>2.303523778915405</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>18.17398452758789</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2">
+      <c r="A1813" t="n">
+        <v>2.163622379302979</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>15.49022769927979</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:2">
+      <c r="A1814" t="n">
+        <v>2.747944831848145</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>5.768040657043457</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2">
+      <c r="A1815" t="n">
+        <v>2.060640573501587</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>3.810938596725464</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2">
+      <c r="A1816" t="n">
+        <v>2.565737962722778</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>7.163204669952393</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2">
+      <c r="A1817" t="n">
+        <v>2.006311178207397</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>3.497248649597168</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2">
+      <c r="A1818" t="n">
+        <v>2.955237865447998</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>13.96627616882324</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:2">
+      <c r="A1819" t="n">
+        <v>2.224041938781738</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>13.20121669769287</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2">
+      <c r="A1820" t="n">
+        <v>2.656126022338867</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>4.108356952667236</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2">
+      <c r="A1821" t="n">
+        <v>2.038514137268066</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>1.655629634857178</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2">
+      <c r="A1822" t="n">
+        <v>2.669965028762817</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>14.1580286026001</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2">
+      <c r="A1823" t="n">
+        <v>2.102327585220337</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>11.99882030487061</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2">
+      <c r="A1824" t="n">
+        <v>2.512032508850098</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>9.675761222839355</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2">
+      <c r="A1825" t="n">
+        <v>1.808523178100586</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>10.01759243011475</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2">
+      <c r="A1826" t="n">
+        <v>2.834926128387451</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>4.330233097076416</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2">
+      <c r="A1827" t="n">
+        <v>2.608410835266113</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>3.454907417297363</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2">
+      <c r="A1828" t="n">
+        <v>2.397640228271484</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>17.05880737304688</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2">
+      <c r="A1829" t="n">
+        <v>2.332418441772461</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>6.297329902648926</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2">
+      <c r="A1830" t="n">
+        <v>2.706064939498901</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>12.22206115722656</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2">
+      <c r="A1831" t="n">
+        <v>2.000423908233643</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>9.645719528198242</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2">
+      <c r="A1832" t="n">
+        <v>2.574248552322388</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>12.13212013244629</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2">
+      <c r="A1833" t="n">
+        <v>1.923380494117737</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>9.028646469116211</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2">
+      <c r="A1834" t="n">
+        <v>2.529314279556274</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>15.42440319061279</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2">
+      <c r="A1835" t="n">
+        <v>2.535744190216064</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>24.37550354003906</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2">
+      <c r="A1836" t="n">
+        <v>1.96931004524231</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>18.82855987548828</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2">
+      <c r="A1837" t="n">
+        <v>2.243398666381836</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>16.87375259399414</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2">
+      <c r="A1838" t="n">
+        <v>2.134130954742432</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>14.78701114654541</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2">
+      <c r="A1839" t="n">
+        <v>2.198296070098877</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>15.97795104980469</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2">
+      <c r="A1840" t="n">
+        <v>2.103031873703003</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>15.46222400665283</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2">
+      <c r="A1841" t="n">
+        <v>2.313968181610107</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>11.8306999206543</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2">
+      <c r="A1842" t="n">
+        <v>2.319083213806152</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>11.52981567382812</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2">
+      <c r="A1843" t="n">
+        <v>2.158310651779175</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>11.53547096252441</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2">
+      <c r="A1844" t="n">
+        <v>2.286719560623169</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>12.00210762023926</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2">
+      <c r="A1845" t="n">
+        <v>2.355633974075317</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>17.7470588684082</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2">
+      <c r="A1846" t="n">
+        <v>2.032746076583862</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>19.14971160888672</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2">
+      <c r="A1847" t="n">
+        <v>2.119837045669556</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>20.32096290588379</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2">
+      <c r="A1848" t="n">
+        <v>2.0555100440979</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>20.72074317932129</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2">
+      <c r="A1849" t="n">
+        <v>2.223205089569092</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>14.69374370574951</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2">
+      <c r="A1850" t="n">
+        <v>2.132984638214111</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>14.25509929656982</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2">
+      <c r="A1851" t="n">
+        <v>2.253043651580811</v>
+      </c>
+      <c r="B1851" t="n">
+        <v>18.74872207641602</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2">
+      <c r="A1852" t="n">
+        <v>2.261181831359863</v>
+      </c>
+      <c r="B1852" t="n">
+        <v>18.52622222900391</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2">
+      <c r="A1853" t="n">
+        <v>2.230616569519043</v>
+      </c>
+      <c r="B1853" t="n">
+        <v>17.70867919921875</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2">
+      <c r="A1854" t="n">
+        <v>1.954290628433228</v>
+      </c>
+      <c r="B1854" t="n">
+        <v>20.77828407287598</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2">
+      <c r="A1855" t="n">
+        <v>2.0555100440979</v>
+      </c>
+      <c r="B1855" t="n">
+        <v>20.72074317932129</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2">
+      <c r="A1856" t="n">
+        <v>2.330619335174561</v>
+      </c>
+      <c r="B1856" t="n">
+        <v>18.34578323364258</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2">
+      <c r="A1857" t="n">
+        <v>2.345917701721191</v>
+      </c>
+      <c r="B1857" t="n">
+        <v>14.88833999633789</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2">
+      <c r="A1858" t="n">
+        <v>2.22862434387207</v>
+      </c>
+      <c r="B1858" t="n">
+        <v>17.03617858886719</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2">
+      <c r="A1859" t="n">
+        <v>2.275121688842773</v>
+      </c>
+      <c r="B1859" t="n">
+        <v>22.13973808288574</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2">
+      <c r="A1860" t="n">
+        <v>2.481081485748291</v>
+      </c>
+      <c r="B1860" t="n">
+        <v>19.98749160766602</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2">
+      <c r="A1861" t="n">
+        <v>2.514221429824829</v>
+      </c>
+      <c r="B1861" t="n">
+        <v>21.8222599029541</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2">
+      <c r="A1862" t="n">
+        <v>2.259175062179565</v>
+      </c>
+      <c r="B1862" t="n">
+        <v>21.25123405456543</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2">
+      <c r="A1863" t="n">
+        <v>2.252200603485107</v>
+      </c>
+      <c r="B1863" t="n">
+        <v>12.26870822906494</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2">
+      <c r="A1864" t="n">
+        <v>1.974423408508301</v>
+      </c>
+      <c r="B1864" t="n">
+        <v>16.23398208618164</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2">
+      <c r="A1865" t="n">
+        <v>2.219247102737427</v>
+      </c>
+      <c r="B1865" t="n">
+        <v>16.41132354736328</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2">
+      <c r="A1866" t="n">
+        <v>2.258436679840088</v>
+      </c>
+      <c r="B1866" t="n">
+        <v>17.98272323608398</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2">
+      <c r="A1867" t="n">
+        <v>2.348261833190918</v>
+      </c>
+      <c r="B1867" t="n">
+        <v>17.87961959838867</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2">
+      <c r="A1868" t="n">
+        <v>2.132167339324951</v>
+      </c>
+      <c r="B1868" t="n">
+        <v>19.52051544189453</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2">
+      <c r="A1869" t="n">
+        <v>2.23457670211792</v>
+      </c>
+      <c r="B1869" t="n">
+        <v>19.33918190002441</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2">
+      <c r="A1870" t="n">
+        <v>2.185324907302856</v>
+      </c>
+      <c r="B1870" t="n">
+        <v>17.35174751281738</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2">
+      <c r="A1871" t="n">
+        <v>2.052305936813354</v>
+      </c>
+      <c r="B1871" t="n">
+        <v>7.588841438293457</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2">
+      <c r="A1872" t="n">
+        <v>2.254685640335083</v>
+      </c>
+      <c r="B1872" t="n">
+        <v>10.96606922149658</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2">
+      <c r="A1873" t="n">
+        <v>2.117380380630493</v>
+      </c>
+      <c r="B1873" t="n">
+        <v>17.28568649291992</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2">
+      <c r="A1874" t="n">
+        <v>2.109487056732178</v>
+      </c>
+      <c r="B1874" t="n">
+        <v>9.398956298828125</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2">
+      <c r="A1875" t="n">
+        <v>1.675594806671143</v>
+      </c>
+      <c r="B1875" t="n">
+        <v>6.035481452941895</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2">
+      <c r="A1876" t="n">
+        <v>2.081283807754517</v>
+      </c>
+      <c r="B1876" t="n">
+        <v>12.08561134338379</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2">
+      <c r="A1877" t="n">
+        <v>2.184890270233154</v>
+      </c>
+      <c r="B1877" t="n">
+        <v>17.35747909545898</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2">
+      <c r="A1878" t="n">
+        <v>2.407176494598389</v>
+      </c>
+      <c r="B1878" t="n">
+        <v>19.53011894226074</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2">
+      <c r="A1879" t="n">
+        <v>2.148877620697021</v>
+      </c>
+      <c r="B1879" t="n">
+        <v>16.78855514526367</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2">
+      <c r="A1880" t="n">
+        <v>2.081283807754517</v>
+      </c>
+      <c r="B1880" t="n">
+        <v>12.08561134338379</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:2">
+      <c r="A1881" t="n">
+        <v>2.421794891357422</v>
+      </c>
+      <c r="B1881" t="n">
+        <v>18.46511840820312</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:2">
+      <c r="A1882" t="n">
+        <v>2.074499130249023</v>
+      </c>
+      <c r="B1882" t="n">
+        <v>5.610026836395264</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2">
+      <c r="A1883" t="n">
+        <v>2.190239429473877</v>
+      </c>
+      <c r="B1883" t="n">
+        <v>8.758754730224609</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2">
+      <c r="A1884" t="n">
+        <v>2.127925634384155</v>
+      </c>
+      <c r="B1884" t="n">
+        <v>15.53673267364502</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:2">
+      <c r="A1885" t="n">
+        <v>2.350651264190674</v>
+      </c>
+      <c r="B1885" t="n">
+        <v>18.88648223876953</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2">
+      <c r="A1886" t="n">
+        <v>2.401588439941406</v>
+      </c>
+      <c r="B1886" t="n">
+        <v>11.80499839782715</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2">
+      <c r="A1887" t="n">
+        <v>2.347271919250488</v>
+      </c>
+      <c r="B1887" t="n">
+        <v>22.06880187988281</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2">
+      <c r="A1888" t="n">
+        <v>2.39853048324585</v>
+      </c>
+      <c r="B1888" t="n">
+        <v>17.41386032104492</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2">
+      <c r="A1889" t="n">
+        <v>2.312507152557373</v>
+      </c>
+      <c r="B1889" t="n">
+        <v>14.16765117645264</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2">
+      <c r="A1890" t="n">
+        <v>2.070794582366943</v>
+      </c>
+      <c r="B1890" t="n">
+        <v>9.77357006072998</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2">
+      <c r="A1891" t="n">
+        <v>2.049785852432251</v>
+      </c>
+      <c r="B1891" t="n">
+        <v>12.38948822021484</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2">
+      <c r="A1892" t="n">
+        <v>2.096900701522827</v>
+      </c>
+      <c r="B1892" t="n">
+        <v>11.6613883972168</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2">
+      <c r="A1893" t="n">
+        <v>2.147254467010498</v>
+      </c>
+      <c r="B1893" t="n">
+        <v>8.234991073608398</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2">
+      <c r="A1894" t="n">
+        <v>2.855465888977051</v>
+      </c>
+      <c r="B1894" t="n">
+        <v>9.941403388977051</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2">
+      <c r="A1895" t="n">
+        <v>2.124141216278076</v>
+      </c>
+      <c r="B1895" t="n">
+        <v>11.70813274383545</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2">
+      <c r="A1896" t="n">
+        <v>1.942473769187927</v>
+      </c>
+      <c r="B1896" t="n">
+        <v>9.433647155761719</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2">
+      <c r="A1897" t="n">
+        <v>2.609597444534302</v>
+      </c>
+      <c r="B1897" t="n">
+        <v>16.58702850341797</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2">
+      <c r="A1898" t="n">
+        <v>2.273306846618652</v>
+      </c>
+      <c r="B1898" t="n">
+        <v>10.48442459106445</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2">
+      <c r="A1899" t="n">
+        <v>2.831478595733643</v>
+      </c>
+      <c r="B1899" t="n">
+        <v>6.845293045043945</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:2">
+      <c r="A1900" t="n">
+        <v>2.236243486404419</v>
+      </c>
+      <c r="B1900" t="n">
+        <v>8.397972106933594</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2">
+      <c r="A1901" t="n">
+        <v>2.686652183532715</v>
+      </c>
+      <c r="B1901" t="n">
+        <v>16.51762008666992</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2">
+      <c r="A1902" t="n">
+        <v>2.014209032058716</v>
+      </c>
+      <c r="B1902" t="n">
+        <v>13.18877601623535</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2">
+      <c r="A1903" t="n">
+        <v>2.049253463745117</v>
+      </c>
+      <c r="B1903" t="n">
+        <v>12.82198715209961</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2">
+      <c r="A1904" t="n">
+        <v>2.080933809280396</v>
+      </c>
+      <c r="B1904" t="n">
+        <v>10.6814079284668</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2">
+      <c r="A1905" t="n">
+        <v>2.245722770690918</v>
+      </c>
+      <c r="B1905" t="n">
+        <v>15.37675952911377</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2">
+      <c r="A1906" t="n">
+        <v>2.161537170410156</v>
+      </c>
+      <c r="B1906" t="n">
+        <v>15.40566349029541</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2">
+      <c r="A1907" t="n">
+        <v>2.093517780303955</v>
+      </c>
+      <c r="B1907" t="n">
+        <v>13.01991939544678</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2">
+      <c r="A1908" t="n">
+        <v>1.93958306312561</v>
+      </c>
+      <c r="B1908" t="n">
+        <v>13.34548854827881</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2">
+      <c r="A1909" t="n">
+        <v>1.902523875236511</v>
+      </c>
+      <c r="B1909" t="n">
+        <v>12.82577705383301</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2">
+      <c r="A1910" t="n">
+        <v>1.999240517616272</v>
+      </c>
+      <c r="B1910" t="n">
+        <v>12.52548503875732</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2">
+      <c r="A1911" t="n">
+        <v>1.918778419494629</v>
+      </c>
+      <c r="B1911" t="n">
+        <v>12.74682426452637</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2">
+      <c r="A1912" t="n">
+        <v>2.025938272476196</v>
+      </c>
+      <c r="B1912" t="n">
+        <v>12.76375198364258</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2">
+      <c r="A1913" t="n">
+        <v>2.746471405029297</v>
+      </c>
+      <c r="B1913" t="n">
+        <v>16.92623901367188</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:2">
+      <c r="A1914" t="n">
+        <v>2.146124362945557</v>
+      </c>
+      <c r="B1914" t="n">
+        <v>13.23607444763184</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:2">
+      <c r="A1915" t="n">
+        <v>2.73895788192749</v>
+      </c>
+      <c r="B1915" t="n">
+        <v>17.26833343505859</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2">
+      <c r="A1916" t="n">
+        <v>2.138781547546387</v>
+      </c>
+      <c r="B1916" t="n">
+        <v>13.80485248565674</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:2">
+      <c r="A1917" t="n">
+        <v>2.801340579986572</v>
+      </c>
+      <c r="B1917" t="n">
+        <v>15.9531831741333</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:2">
+      <c r="A1918" t="n">
+        <v>2.152087450027466</v>
+      </c>
+      <c r="B1918" t="n">
+        <v>13.01271343231201</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:2">
+      <c r="A1919" t="n">
+        <v>2.660252094268799</v>
+      </c>
+      <c r="B1919" t="n">
+        <v>5.933248043060303</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2">
+      <c r="A1920" t="n">
+        <v>1.860689997673035</v>
+      </c>
+      <c r="B1920" t="n">
+        <v>6.154737949371338</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:2">
+      <c r="A1921" t="n">
+        <v>2.020776271820068</v>
+      </c>
+      <c r="B1921" t="n">
+        <v>14.08017158508301</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:2">
+      <c r="A1922" t="n">
+        <v>1.899047493934631</v>
+      </c>
+      <c r="B1922" t="n">
+        <v>6.63618803024292</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2">
+      <c r="A1923" t="n">
+        <v>2.464440584182739</v>
+      </c>
+      <c r="B1923" t="n">
+        <v>8.795049667358398</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2">
+      <c r="A1924" t="n">
+        <v>1.774575352668762</v>
+      </c>
+      <c r="B1924" t="n">
+        <v>6.695008754730225</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:2">
+      <c r="A1925" t="n">
+        <v>2.709310531616211</v>
+      </c>
+      <c r="B1925" t="n">
+        <v>16.10926055908203</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:2">
+      <c r="A1926" t="n">
+        <v>2.108556985855103</v>
+      </c>
+      <c r="B1926" t="n">
+        <v>14.08161640167236</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2">
+      <c r="A1927" t="n">
+        <v>2.766488790512085</v>
+      </c>
+      <c r="B1927" t="n">
+        <v>13.66712474822998</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2">
+      <c r="A1928" t="n">
+        <v>2.16895318031311</v>
+      </c>
+      <c r="B1928" t="n">
+        <v>10.64948558807373</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:2">
+      <c r="A1929" t="n">
+        <v>2.090919971466064</v>
+      </c>
+      <c r="B1929" t="n">
+        <v>14.10274124145508</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2">
+      <c r="A1930" t="n">
+        <v>2.824062347412109</v>
+      </c>
+      <c r="B1930" t="n">
+        <v>16.02032852172852</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2">
+      <c r="A1931" t="n">
+        <v>2.166530132293701</v>
+      </c>
+      <c r="B1931" t="n">
+        <v>15.18872261047363</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2">
+      <c r="A1932" t="n">
+        <v>2.351165771484375</v>
+      </c>
+      <c r="B1932" t="n">
+        <v>17.8331470489502</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2">
+      <c r="A1933" t="n">
+        <v>2.328564405441284</v>
+      </c>
+      <c r="B1933" t="n">
+        <v>18.19634819030762</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2">
+      <c r="A1934" t="n">
+        <v>2.207025766372681</v>
+      </c>
+      <c r="B1934" t="n">
+        <v>12.4334602355957</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2">
+      <c r="A1935" t="n">
+        <v>2.35184907913208</v>
+      </c>
+      <c r="B1935" t="n">
+        <v>19.12135314941406</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2">
+      <c r="A1936" t="n">
+        <v>2.378125667572021</v>
+      </c>
+      <c r="B1936" t="n">
+        <v>20.21066665649414</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2">
+      <c r="A1937" t="n">
+        <v>2.397744178771973</v>
+      </c>
+      <c r="B1937" t="n">
+        <v>20.2184944152832</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2">
+      <c r="A1938" t="n">
+        <v>2.299744844436646</v>
+      </c>
+      <c r="B1938" t="n">
+        <v>18.15230178833008</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2">
+      <c r="A1939" t="n">
+        <v>2.154082298278809</v>
+      </c>
+      <c r="B1939" t="n">
+        <v>15.930100440979</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2">
+      <c r="A1940" t="n">
+        <v>2.691817760467529</v>
+      </c>
+      <c r="B1940" t="n">
+        <v>6.46579122543335</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2">
+      <c r="A1941" t="n">
+        <v>2.071360349655151</v>
+      </c>
+      <c r="B1941" t="n">
+        <v>5.393232345581055</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2">
+      <c r="A1942" t="n">
+        <v>2.597091197967529</v>
+      </c>
+      <c r="B1942" t="n">
+        <v>7.661661148071289</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2">
+      <c r="A1943" t="n">
+        <v>1.98054039478302</v>
+      </c>
+      <c r="B1943" t="n">
+        <v>4.901678085327148</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2">
+      <c r="A1944" t="n">
+        <v>2.80286169052124</v>
+      </c>
+      <c r="B1944" t="n">
+        <v>13.36640357971191</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2">
+      <c r="A1945" t="n">
+        <v>2.138174295425415</v>
+      </c>
+      <c r="B1945" t="n">
+        <v>11.81561088562012</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2">
+      <c r="A1946" t="n">
+        <v>2.676742076873779</v>
+      </c>
+      <c r="B1946" t="n">
+        <v>5.434243202209473</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2">
+      <c r="A1947" t="n">
+        <v>1.9597407579422</v>
+      </c>
+      <c r="B1947" t="n">
+        <v>4.366123199462891</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2">
+      <c r="A1948" t="n">
+        <v>2.658670902252197</v>
+      </c>
+      <c r="B1948" t="n">
+        <v>13.94858551025391</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:2">
+      <c r="A1949" t="n">
+        <v>2.042450904846191</v>
+      </c>
+      <c r="B1949" t="n">
+        <v>10.87502288818359</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2">
+      <c r="A1950" t="n">
+        <v>2.622784614562988</v>
+      </c>
+      <c r="B1950" t="n">
+        <v>11.08890151977539</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2">
+      <c r="A1951" t="n">
+        <v>1.842798471450806</v>
+      </c>
+      <c r="B1951" t="n">
+        <v>10.15950489044189</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2">
+      <c r="A1952" t="n">
+        <v>2.780709266662598</v>
+      </c>
+      <c r="B1952" t="n">
+        <v>5.282414436340332</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2">
+      <c r="A1953" t="n">
+        <v>2.345025777816772</v>
+      </c>
+      <c r="B1953" t="n">
+        <v>6.944584846496582</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2">
+      <c r="A1954" t="n">
+        <v>2.201539039611816</v>
+      </c>
+      <c r="B1954" t="n">
+        <v>14.18157386779785</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2">
+      <c r="A1955" t="n">
+        <v>2.366250514984131</v>
+      </c>
+      <c r="B1955" t="n">
+        <v>6.609891414642334</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2">
+      <c r="A1956" t="n">
+        <v>2.591926336288452</v>
+      </c>
+      <c r="B1956" t="n">
+        <v>12.09400177001953</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2">
+      <c r="A1957" t="n">
+        <v>1.931751728057861</v>
+      </c>
+      <c r="B1957" t="n">
+        <v>9.045665740966797</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2">
+      <c r="A1958" t="n">
+        <v>2.523995399475098</v>
+      </c>
+      <c r="B1958" t="n">
+        <v>12.32768249511719</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2">
+      <c r="A1959" t="n">
+        <v>1.906368255615234</v>
+      </c>
+      <c r="B1959" t="n">
+        <v>7.936432838439941</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2">
+      <c r="A1960" t="n">
+        <v>2.499243021011353</v>
+      </c>
+      <c r="B1960" t="n">
+        <v>16.07240676879883</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2">
+      <c r="A1961" t="n">
+        <v>2.551142692565918</v>
+      </c>
+      <c r="B1961" t="n">
+        <v>23.22524452209473</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2">
+      <c r="A1962" t="n">
+        <v>2.149734020233154</v>
+      </c>
+      <c r="B1962" t="n">
+        <v>14.12872219085693</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2">
+      <c r="A1963" t="n">
+        <v>2.210208654403687</v>
+      </c>
+      <c r="B1963" t="n">
+        <v>15.89243030548096</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2">
+      <c r="A1964" t="n">
+        <v>2.095343112945557</v>
+      </c>
+      <c r="B1964" t="n">
+        <v>13.71975231170654</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2">
+      <c r="A1965" t="n">
+        <v>2.139092445373535</v>
+      </c>
+      <c r="B1965" t="n">
+        <v>12.61538696289062</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2">
+      <c r="A1966" t="n">
+        <v>2.054282426834106</v>
+      </c>
+      <c r="B1966" t="n">
+        <v>12.88009548187256</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2">
+      <c r="A1967" t="n">
+        <v>2.191559314727783</v>
+      </c>
+      <c r="B1967" t="n">
+        <v>10.61185073852539</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2">
+      <c r="A1968" t="n">
+        <v>2.280493021011353</v>
+      </c>
+      <c r="B1968" t="n">
+        <v>9.723150253295898</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2">
+      <c r="A1969" t="n">
+        <v>2.204685926437378</v>
+      </c>
+      <c r="B1969" t="n">
+        <v>10.40719795227051</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2">
+      <c r="A1970" t="n">
+        <v>2.239973545074463</v>
+      </c>
+      <c r="B1970" t="n">
+        <v>10.69666862487793</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2">
+      <c r="A1971" t="n">
+        <v>2.289590120315552</v>
+      </c>
+      <c r="B1971" t="n">
+        <v>16.22933197021484</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2">
+      <c r="A1972" t="n">
+        <v>1.666461944580078</v>
+      </c>
+      <c r="B1972" t="n">
+        <v>16.83351135253906</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2">
+      <c r="A1973" t="n">
+        <v>1.429121851921082</v>
+      </c>
+      <c r="B1973" t="n">
+        <v>18.56274795532227</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2">
+      <c r="A1974" t="n">
+        <v>1.454092621803284</v>
+      </c>
+      <c r="B1974" t="n">
+        <v>18.61416435241699</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2">
+      <c r="A1975" t="n">
+        <v>2.000184297561646</v>
+      </c>
+      <c r="B1975" t="n">
+        <v>12.48813819885254</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2">
+      <c r="A1976" t="n">
+        <v>2.095785617828369</v>
+      </c>
+      <c r="B1976" t="n">
+        <v>13.32509708404541</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2">
+      <c r="A1977" t="n">
+        <v>2.261543989181519</v>
+      </c>
+      <c r="B1977" t="n">
+        <v>18.01668167114258</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2">
+      <c r="A1978" t="n">
+        <v>2.262546539306641</v>
+      </c>
+      <c r="B1978" t="n">
+        <v>17.74496841430664</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2">
+      <c r="A1979" t="n">
+        <v>2.0626220703125</v>
+      </c>
+      <c r="B1979" t="n">
+        <v>14.01363086700439</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:2">
+      <c r="A1980" t="n">
+        <v>1.514625549316406</v>
+      </c>
+      <c r="B1980" t="n">
+        <v>18.71000289916992</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2">
+      <c r="A1981" t="n">
+        <v>1.454092621803284</v>
+      </c>
+      <c r="B1981" t="n">
+        <v>18.61416435241699</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2">
+      <c r="A1982" t="n">
+        <v>2.313948154449463</v>
+      </c>
+      <c r="B1982" t="n">
+        <v>18.9377269744873</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2">
+      <c r="A1983" t="n">
+        <v>2.318098306655884</v>
+      </c>
+      <c r="B1983" t="n">
+        <v>12.50057029724121</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2">
+      <c r="A1984" t="n">
+        <v>2.233069658279419</v>
+      </c>
+      <c r="B1984" t="n">
+        <v>14.66393566131592</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2">
+      <c r="A1985" t="n">
+        <v>2.398050308227539</v>
+      </c>
+      <c r="B1985" t="n">
+        <v>23.2927303314209</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2">
+      <c r="A1986" t="n">
+        <v>2.427450895309448</v>
+      </c>
+      <c r="B1986" t="n">
+        <v>18.89754867553711</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2">
+      <c r="A1987" t="n">
+        <v>2.43578052520752</v>
+      </c>
+      <c r="B1987" t="n">
+        <v>20.01310348510742</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2">
+      <c r="A1988" t="n">
+        <v>2.370855331420898</v>
+      </c>
+      <c r="B1988" t="n">
+        <v>22.38154792785645</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2">
+      <c r="A1989" t="n">
+        <v>2.139957904815674</v>
+      </c>
+      <c r="B1989" t="n">
+        <v>10.84321689605713</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:2">
+      <c r="A1990" t="n">
+        <v>2.14488697052002</v>
+      </c>
+      <c r="B1990" t="n">
+        <v>12.27213668823242</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:2">
+      <c r="A1991" t="n">
+        <v>2.191743850708008</v>
+      </c>
+      <c r="B1991" t="n">
+        <v>16.34071731567383</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:2">
+      <c r="A1992" t="n">
+        <v>2.266280889511108</v>
+      </c>
+      <c r="B1992" t="n">
+        <v>14.92305946350098</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:2">
+      <c r="A1993" t="n">
+        <v>2.280533313751221</v>
+      </c>
+      <c r="B1993" t="n">
+        <v>14.65574073791504</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:2">
+      <c r="A1994" t="n">
+        <v>2.143818378448486</v>
+      </c>
+      <c r="B1994" t="n">
+        <v>15.12349033355713</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:2">
+      <c r="A1995" t="n">
+        <v>2.145981788635254</v>
+      </c>
+      <c r="B1995" t="n">
+        <v>14.84503746032715</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:2">
+      <c r="A1996" t="n">
+        <v>2.162448883056641</v>
+      </c>
+      <c r="B1996" t="n">
+        <v>14.49216270446777</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:2">
+      <c r="A1997" t="n">
+        <v>1.976068615913391</v>
+      </c>
+      <c r="B1997" t="n">
+        <v>7.401703834533691</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:2">
+      <c r="A1998" t="n">
+        <v>2.137484312057495</v>
+      </c>
+      <c r="B1998" t="n">
+        <v>11.78580665588379</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:2">
+      <c r="A1999" t="n">
+        <v>2.190294742584229</v>
+      </c>
+      <c r="B1999" t="n">
+        <v>17.01166343688965</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:2">
+      <c r="A2000" t="n">
+        <v>2.022536754608154</v>
+      </c>
+      <c r="B2000" t="n">
+        <v>10.11296081542969</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2">
+      <c r="A2001" t="n">
+        <v>1.748161792755127</v>
+      </c>
+      <c r="B2001" t="n">
+        <v>5.082222938537598</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:2">
+      <c r="A2002" t="n">
+        <v>1.978881359100342</v>
+      </c>
+      <c r="B2002" t="n">
+        <v>10.59909439086914</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:2">
+      <c r="A2003" t="n">
+        <v>1.622887372970581</v>
+      </c>
+      <c r="B2003" t="n">
+        <v>15.70892715454102</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:2">
+      <c r="A2004" t="n">
+        <v>2.375316143035889</v>
+      </c>
+      <c r="B2004" t="n">
+        <v>18.93722915649414</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:2">
+      <c r="A2005" t="n">
+        <v>2.178327798843384</v>
+      </c>
+      <c r="B2005" t="n">
+        <v>17.4789924621582</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:2">
+      <c r="A2006" t="n">
+        <v>1.978881359100342</v>
+      </c>
+      <c r="B2006" t="n">
+        <v>10.59909439086914</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:2">
+      <c r="A2007" t="n">
+        <v>2.382533550262451</v>
+      </c>
+      <c r="B2007" t="n">
+        <v>19.1416130065918</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:2">
+      <c r="A2008" t="n">
+        <v>1.976997494697571</v>
+      </c>
+      <c r="B2008" t="n">
+        <v>7.318530082702637</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:2">
+      <c r="A2009" t="n">
+        <v>2.156822443008423</v>
+      </c>
+      <c r="B2009" t="n">
+        <v>8.349460601806641</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:2">
+      <c r="A2010" t="n">
+        <v>2.050089836120605</v>
+      </c>
+      <c r="B2010" t="n">
+        <v>13.1218957901001</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:2">
+      <c r="A2011" t="n">
+        <v>2.04938793182373</v>
+      </c>
+      <c r="B2011" t="n">
+        <v>14.75845432281494</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:2">
+      <c r="A2012" t="n">
+        <v>2.275306463241577</v>
+      </c>
+      <c r="B2012" t="n">
+        <v>10.44427299499512</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:2">
+      <c r="A2013" t="n">
+        <v>2.420387268066406</v>
+      </c>
+      <c r="B2013" t="n">
+        <v>22.2560920715332</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:2">
+      <c r="A2014" t="n">
+        <v>2.356216669082642</v>
+      </c>
+      <c r="B2014" t="n">
+        <v>18.66870880126953</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:2">
+      <c r="A2015" t="n">
+        <v>2.19702410697937</v>
+      </c>
+      <c r="B2015" t="n">
+        <v>14.50658798217773</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:2">
+      <c r="A2016" t="n">
+        <v>1.96916675567627</v>
+      </c>
+      <c r="B2016" t="n">
+        <v>10.19463634490967</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:2">
+      <c r="A2017" t="n">
+        <v>1.971008658409119</v>
+      </c>
+      <c r="B2017" t="n">
+        <v>12.44226932525635</v>
       </c>
     </row>
   </sheetData>
